--- a/spreadsheets/vehicle_classification_template_filled.xlsx
+++ b/spreadsheets/vehicle_classification_template_filled.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bushmaster</t>
+          <t>Armoured Personnel Carrier (APC)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Grondverzetmachines</t>
+          <t>(Armoured) Engineer Vehicle ((A)EV)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Waterboorinstallatie</t>
+          <t>(Armoured) Engineer Vehicle ((A)EV)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
